--- a/Mapping/unimelb_dookie_url.xlsx
+++ b/Mapping/unimelb_dookie_url.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
-    <t>Building name</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>url</t>
+    <t>building_name</t>
+  </si>
+  <si>
+    <t>building_no</t>
+  </si>
+  <si>
+    <t>website:map</t>
   </si>
   <si>
     <t>DOOKIE ACADEMIC CENTRE (MAIN BUILDING)</t>
@@ -109,46 +109,46 @@
     <t>546</t>
   </si>
   <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 505 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 506 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 507  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 510 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 519 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 527 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 528 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 529 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 535 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 540 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 542 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 541 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 545 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi= 546 </t>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=505</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=506</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=507</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=510</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=519</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=527</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=528</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=529</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=535</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=540</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=542</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=541</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=545</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=220&amp;sharepoitype=identifier&amp;sharepoi=546</t>
   </si>
 </sst>
 </file>
